--- a/final/Excel Questions/Q6.xlsx
+++ b/final/Excel Questions/Q6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc\Documents\513HW\final\Excel Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45391BB0-9DD5-4C5F-8782-10212EA2FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62241BA-440C-4F99-9D3A-697F872B73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,18 +703,6 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1040,13 +1028,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>337641</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>31024</xdr:rowOff>
+      <xdr:rowOff>8164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>571684</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>70213</xdr:rowOff>
+      <xdr:rowOff>47353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1063,8 +1051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10872291" y="2507524"/>
-          <a:ext cx="2024743" cy="553539"/>
+          <a:off x="11630481" y="2629444"/>
+          <a:ext cx="2078083" cy="587829"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1867,61 +1855,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1945,7 +1878,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0FD61F-BF7A-4632-AEC4-340595012F2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +1942,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43349648-93D4-40AE-BCD1-C6DD72F57FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2001,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8711E5-FA0A-4B4D-8C63-9BF308473EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2060,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAA27E0-73E4-4951-8FF3-8208B4C20FB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2141,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA28E2-41F7-4D11-8F59-16CD0FAB2125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2222,7 @@
         <xdr:cNvPr id="7" name="Line 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B22460-E0F1-4F27-B50D-6F1167399287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2283,7 @@
         <xdr:cNvPr id="8" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B9F20C-41AB-43E4-8686-447A6C6DBB6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2337,7 @@
         <xdr:cNvPr id="9" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D92C63-06EC-4A94-A3C8-3056C890C3BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2391,7 @@
         <xdr:cNvPr id="10" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B61CF21-5744-496E-884F-CA58FD5277B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2445,7 @@
         <xdr:cNvPr id="11" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2B0D84-D1A4-48E3-8D40-65799F786AEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2494,7 @@
         <xdr:cNvPr id="12" name="Line 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7769AA-C606-4903-A4DF-36CDD7263467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2548,7 @@
         <xdr:cNvPr id="13" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AB2416-7819-464F-86DE-3C6C9814E230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2602,7 @@
         <xdr:cNvPr id="14" name="Oval 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45412102-18E3-4CED-9207-44657A20F3A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2662,7 @@
         <xdr:cNvPr id="15" name="Line 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F7E58E-5484-47D7-B4D6-83AF9D0DDF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2717,7 @@
         <xdr:cNvPr id="16" name="Line 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBBE12C-1DF3-4574-A2E3-25A78E94E8C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2779,7 @@
         <xdr:cNvPr id="17" name="Oval 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EFE1D4-CD55-434A-BB7D-0BDF92A5207B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2861,7 @@
         <xdr:cNvPr id="18" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F64276C-798B-4A5C-9888-8D29CDE9A1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +2944,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183F74AE-ACCF-4E0E-B8E5-B3CF5BA908D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3003,7 @@
         <xdr:cNvPr id="20" name="Straight Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EEDBBD-C27E-4E0D-BAF2-33EAE81616A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3053,7 @@
         <xdr:cNvPr id="21" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9CC89B-4818-4986-BD7F-43D835BF578C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3108,7 @@
         <xdr:cNvPr id="22" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBC3F26-D164-4694-ACC0-3A3F106AE872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3162,7 @@
         <xdr:cNvPr id="23" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6968B6D4-A662-4181-B3ED-72A094803B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3223,7 @@
         <xdr:cNvPr id="24" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1200A5-619E-46E2-BA86-4F8ECD632D09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3282,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D0D725-7772-4ABE-8ECA-7C86CD673DF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3646,11 +3579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3671,12 +3604,12 @@
     <col min="20" max="24" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3618,7 @@
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
@@ -3694,13 +3627,13 @@
       </c>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
@@ -3710,11 +3643,8 @@
       <c r="D6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3725,7 +3655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
@@ -3735,11 +3665,8 @@
       <c r="D8" s="29">
         <v>0.6</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
@@ -3749,11 +3676,8 @@
       <c r="D9" s="29">
         <v>0.8</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3688,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
@@ -3774,14 +3698,8 @@
       <c r="D11" s="29">
         <v>0.2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
@@ -3791,17 +3709,8 @@
       <c r="D12" s="29">
         <v>0.7</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.85319999999999996</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
@@ -3812,7 +3721,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>8</v>
       </c>
@@ -3822,18 +3731,8 @@
       <c r="D14" s="29">
         <v>0.8</v>
       </c>
-      <c r="J14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="S14" s="1">
-        <f>Q50</f>
-        <v>0.88905861083862014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>9</v>
       </c>
@@ -3843,14 +3742,8 @@
       <c r="D15" s="29">
         <v>0.4</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>10</v>
       </c>
@@ -3871,12 +3764,6 @@
       <c r="D17" s="29">
         <v>0.5</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
@@ -3898,33 +3785,6 @@
       </c>
       <c r="D19" s="32">
         <v>0.9</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.87439999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="1">
-        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.35">
@@ -4719,34 +4579,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 

--- a/final/Excel Questions/Q6.xlsx
+++ b/final/Excel Questions/Q6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc\Documents\513HW\final\Excel Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62241BA-440C-4F99-9D3A-697F872B73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779572F-FBA6-418B-8737-1A07B7FE6156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -471,13 +471,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75023</xdr:colOff>
+      <xdr:colOff>44543</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>81371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>494123</xdr:colOff>
+      <xdr:colOff>463643</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>97427</xdr:rowOff>
     </xdr:to>
@@ -496,8 +496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5237573" y="1700621"/>
-          <a:ext cx="1009650" cy="530406"/>
+          <a:off x="5805263" y="1788251"/>
+          <a:ext cx="1028700" cy="564696"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2044,168 +2044,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>118566</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>537666</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9559746" y="2253615"/>
-          <a:ext cx="1036320" cy="564696"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122648</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51891</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9563828" y="3196046"/>
-          <a:ext cx="1163683" cy="564696"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>427448</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2429,55 +2267,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>337641</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>571684</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>70213</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11630481" y="2652304"/>
-          <a:ext cx="2078083" cy="587829"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>537666</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2586,66 +2375,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>94073</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513173</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>153216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5854793" y="937260"/>
-          <a:ext cx="1028700" cy="557076"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>522698</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -2696,155 +2425,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>503648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6873968" y="1271179"/>
-          <a:ext cx="2704372" cy="2302601"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>137616</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556716</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Oval 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9578796" y="1271179"/>
-          <a:ext cx="1036320" cy="526597"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>XX</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2926,65 +2506,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>54309</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5760720" y="4130192"/>
-          <a:ext cx="1028700" cy="564697"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Node4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3582,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB335B5-AFDA-4648-8D02-7746246019DB}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4608,12 +4129,12 @@
     <col min="20" max="24" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -4622,7 +4143,7 @@
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
@@ -4631,13 +4152,13 @@
       </c>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
@@ -4647,11 +4168,8 @@
       <c r="D6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4180,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
@@ -4672,11 +4190,8 @@
       <c r="D8" s="29">
         <v>0.6</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
@@ -4686,11 +4201,8 @@
       <c r="D9" s="29">
         <v>0.8</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
@@ -4701,7 +4213,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
@@ -4711,14 +4223,8 @@
       <c r="D11" s="29">
         <v>0.2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
@@ -4728,20 +4234,8 @@
       <c r="D12" s="29">
         <v>0.7</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.85319999999999996</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4246,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
         <v>8</v>
       </c>
@@ -4762,18 +4256,8 @@
       <c r="D14" s="29">
         <v>0.8</v>
       </c>
-      <c r="J14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="S14" s="1">
-        <f>Q50</f>
-        <v>0.88905861083862014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>9</v>
       </c>
@@ -4783,14 +4267,8 @@
       <c r="D15" s="29">
         <v>0.4</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>10</v>
       </c>
@@ -4811,12 +4289,6 @@
       <c r="D17" s="29">
         <v>0.5</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
@@ -4838,33 +4310,6 @@
       </c>
       <c r="D19" s="32">
         <v>0.9</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.87439999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G24" s="1">
-        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.35">
